--- a/docs/mcode-r4/obf-lab-MonocytesNCncPtBldQnAutoCntLabObs.xlsx
+++ b/docs/mcode-r4/obf-lab-MonocytesNCncPtBldQnAutoCntLabObs.xlsx
@@ -444,7 +444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|ServiceRequest)
 </t>
   </si>
   <si>
@@ -651,7 +651,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1244,7 +1244,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1466,7 +1466,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
